--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_9_34.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_9_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3050317.52942668</v>
+        <v>3047921.8734215</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>176.8611670793802</v>
+        <v>12.28773869504415</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>308.5974454495113</v>
       </c>
       <c r="I2" t="n">
-        <v>94.24014755885176</v>
+        <v>94.24014755885155</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>140.3157839734241</v>
+        <v>140.315783973424</v>
       </c>
       <c r="T2" t="n">
         <v>209.8976922291835</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1044530022292</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>75.08156458831729</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -753,10 +753,10 @@
         <v>135.7303505775365</v>
       </c>
       <c r="H3" t="n">
-        <v>96.65565115906499</v>
+        <v>96.65565115906496</v>
       </c>
       <c r="I3" t="n">
-        <v>33.85559031833739</v>
+        <v>33.85559031833728</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>32.84094506779746</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,10 +829,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>62.52836347357265</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>150.2028876639205</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.4475243713015</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>222.1670476323163</v>
       </c>
       <c r="U4" t="n">
         <v>286.245260737819</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>310.0894371362972</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>11.99739795242837</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -953,13 +953,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1054,16 +1054,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>49.82727138455632</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V7" t="n">
-        <v>228.1122057353745</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1148,10 +1148,10 @@
         <v>11.52502338186935</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>98.8650934615883</v>
       </c>
       <c r="T8" t="n">
-        <v>206.5589059457607</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.0434357771752</v>
@@ -1196,7 +1196,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>257.9280402119662</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>126.1605539371079</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V10" t="n">
-        <v>60.86538463674672</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>91.87204320893667</v>
       </c>
     </row>
     <row r="14">
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,13 +1765,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>110.0177171766856</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>103.8784673763408</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1895,7 +1895,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2005,16 +2005,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>92.01576915440816</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634813</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2245,16 +2245,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>108.2950343703266</v>
+        <v>136.5667167289878</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,16 +2482,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>42.14967908986381</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634814</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>53.11937003877918</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2804,10 +2804,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695534</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2886,7 +2886,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2919,7 +2919,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T30" t="n">
         <v>188.3046392154443</v>
@@ -2950,22 +2950,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503973</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428122</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012171</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695534</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3123,7 +3123,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3156,7 +3156,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T33" t="n">
         <v>188.3046392154443</v>
@@ -3187,25 +3187,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428122</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012171</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3247,7 +3247,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>161.5330709997918</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3278,10 +3278,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187843</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695534</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3360,7 +3360,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3393,7 +3393,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T36" t="n">
         <v>188.3046392154443</v>
@@ -3433,16 +3433,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>1.799772605716619</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428081</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012171</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3515,10 +3515,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187844</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3597,7 +3597,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>136.5667167289878</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3667,16 +3667,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3958,7 +3958,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>75.55208621972962</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,22 +4132,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>117.4765410832882</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>99.97427419833815</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1849.641940013624</v>
+        <v>836.329571550902</v>
       </c>
       <c r="C2" t="n">
-        <v>1480.679423073212</v>
+        <v>836.329571550902</v>
       </c>
       <c r="D2" t="n">
-        <v>1122.413724466461</v>
+        <v>478.0638729441515</v>
       </c>
       <c r="E2" t="n">
-        <v>736.6254718682171</v>
+        <v>478.0638729441515</v>
       </c>
       <c r="F2" t="n">
-        <v>325.6395670786096</v>
+        <v>471.118372194948</v>
       </c>
       <c r="G2" t="n">
-        <v>146.9919235640841</v>
+        <v>458.7065149272266</v>
       </c>
       <c r="H2" t="n">
-        <v>146.9919235640841</v>
+        <v>146.9919235640839</v>
       </c>
       <c r="I2" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J2" t="n">
-        <v>293.3053724073758</v>
+        <v>125.8997233870233</v>
       </c>
       <c r="K2" t="n">
-        <v>776.0043429178236</v>
+        <v>287.6947354520187</v>
       </c>
       <c r="L2" t="n">
-        <v>1013.627124136015</v>
+        <v>525.3175166702108</v>
       </c>
       <c r="M2" t="n">
-        <v>1309.697690693617</v>
+        <v>821.3880832278138</v>
       </c>
       <c r="N2" t="n">
-        <v>1615.172796929201</v>
+        <v>1462.411292847708</v>
       </c>
       <c r="O2" t="n">
-        <v>2038.122553105051</v>
+        <v>1758.668415689754</v>
       </c>
       <c r="P2" t="n">
-        <v>2238.426880394154</v>
+        <v>2277.553464068625</v>
       </c>
       <c r="Q2" t="n">
-        <v>2550.866182466514</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="R2" t="n">
-        <v>2589.992766140985</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S2" t="n">
-        <v>2448.259651016314</v>
+        <v>2448.259651016315</v>
       </c>
       <c r="T2" t="n">
-        <v>2236.241780077745</v>
+        <v>2236.241780077746</v>
       </c>
       <c r="U2" t="n">
-        <v>2236.241780077745</v>
+        <v>1982.600918459332</v>
       </c>
       <c r="V2" t="n">
-        <v>2236.241780077745</v>
+        <v>1651.538031115761</v>
       </c>
       <c r="W2" t="n">
-        <v>2236.241780077745</v>
+        <v>1298.769375845647</v>
       </c>
       <c r="X2" t="n">
-        <v>2236.241780077745</v>
+        <v>1222.929411615024</v>
       </c>
       <c r="Y2" t="n">
-        <v>2236.241780077745</v>
+        <v>1222.929411615024</v>
       </c>
     </row>
     <row r="3">
@@ -4389,46 +4389,46 @@
         <v>775.4371790282361</v>
       </c>
       <c r="D3" t="n">
-        <v>626.5027693669849</v>
+        <v>626.5027693669847</v>
       </c>
       <c r="E3" t="n">
-        <v>467.2653143615294</v>
+        <v>467.2653143615291</v>
       </c>
       <c r="F3" t="n">
-        <v>320.7307563884144</v>
+        <v>320.7307563884142</v>
       </c>
       <c r="G3" t="n">
-        <v>183.6293921686806</v>
+        <v>183.6293921686807</v>
       </c>
       <c r="H3" t="n">
-        <v>85.99742130093824</v>
+        <v>85.9974213009382</v>
       </c>
       <c r="I3" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J3" t="n">
-        <v>77.11538214995042</v>
+        <v>201.9455071369554</v>
       </c>
       <c r="K3" t="n">
-        <v>460.3590590626818</v>
+        <v>323.3685994072345</v>
       </c>
       <c r="L3" t="n">
-        <v>1037.081874165937</v>
+        <v>831.5342839343288</v>
       </c>
       <c r="M3" t="n">
-        <v>1301.021405661424</v>
+        <v>1472.557493554223</v>
       </c>
       <c r="N3" t="n">
-        <v>1586.355276094756</v>
+        <v>2113.580703174116</v>
       </c>
       <c r="O3" t="n">
-        <v>1829.130999113547</v>
+        <v>2352.385654925575</v>
       </c>
       <c r="P3" t="n">
-        <v>2316.738101020794</v>
+        <v>2524.714615879285</v>
       </c>
       <c r="Q3" t="n">
-        <v>2589.992766140985</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="R3" t="n">
         <v>2589.992766140986</v>
@@ -4443,7 +4443,7 @@
         <v>2023.106809259862</v>
       </c>
       <c r="V3" t="n">
-        <v>1787.95470102812</v>
+        <v>1787.954701028119</v>
       </c>
       <c r="W3" t="n">
         <v>1533.717344299918</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>585.7327293170958</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="C4" t="n">
-        <v>416.796546389189</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="D4" t="n">
-        <v>266.6799069768532</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="E4" t="n">
-        <v>266.6799069768532</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="F4" t="n">
-        <v>266.6799069768532</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="G4" t="n">
-        <v>203.5199438722344</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H4" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I4" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J4" t="n">
-        <v>54.03452733018396</v>
+        <v>54.03452733018415</v>
       </c>
       <c r="K4" t="n">
-        <v>187.543616615987</v>
+        <v>187.5436166159875</v>
       </c>
       <c r="L4" t="n">
-        <v>413.9157199341309</v>
+        <v>413.9157199341317</v>
       </c>
       <c r="M4" t="n">
-        <v>662.982486266671</v>
+        <v>662.9824862666723</v>
       </c>
       <c r="N4" t="n">
-        <v>911.5616180092716</v>
+        <v>911.5616180092733</v>
       </c>
       <c r="O4" t="n">
-        <v>1125.148384357426</v>
+        <v>1125.148384357428</v>
       </c>
       <c r="P4" t="n">
-        <v>1284.38807899347</v>
+        <v>1284.388078993472</v>
       </c>
       <c r="Q4" t="n">
-        <v>1311.20230936112</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="R4" t="n">
-        <v>1311.20230936112</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="S4" t="n">
-        <v>1311.20230936112</v>
+        <v>1108.730062521424</v>
       </c>
       <c r="T4" t="n">
-        <v>1311.20230936112</v>
+        <v>884.3189032968623</v>
       </c>
       <c r="U4" t="n">
-        <v>1022.065682353222</v>
+        <v>595.1822762889644</v>
       </c>
       <c r="V4" t="n">
-        <v>767.3811941473356</v>
+        <v>595.1822762889644</v>
       </c>
       <c r="W4" t="n">
-        <v>767.3811941473356</v>
+        <v>305.7651062520038</v>
       </c>
       <c r="X4" t="n">
-        <v>767.3811941473356</v>
+        <v>305.7651062520038</v>
       </c>
       <c r="Y4" t="n">
-        <v>767.3811941473356</v>
+        <v>84.97252710847371</v>
       </c>
     </row>
     <row r="5">
@@ -4541,31 +4541,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1127.662398709509</v>
+        <v>809.7335931689811</v>
       </c>
       <c r="C5" t="n">
-        <v>814.440745036482</v>
+        <v>440.7710762285694</v>
       </c>
       <c r="D5" t="n">
-        <v>456.1750464297314</v>
+        <v>82.50537762181887</v>
       </c>
       <c r="E5" t="n">
-        <v>70.38679383148717</v>
+        <v>82.50537762181887</v>
       </c>
       <c r="F5" t="n">
-        <v>63.44129308228369</v>
+        <v>75.55987687261539</v>
       </c>
       <c r="G5" t="n">
-        <v>51.7998553228197</v>
+        <v>63.91843911315141</v>
       </c>
       <c r="H5" t="n">
-        <v>51.7998553228197</v>
+        <v>63.91843911315141</v>
       </c>
       <c r="I5" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J5" t="n">
-        <v>189.9868871104778</v>
+        <v>189.9868871104782</v>
       </c>
       <c r="K5" t="n">
         <v>447.8319447135507</v>
@@ -4583,34 +4583,34 @@
         <v>2075.818195082061</v>
       </c>
       <c r="P5" t="n">
-        <v>2384.705143645556</v>
+        <v>2384.705143645557</v>
       </c>
       <c r="Q5" t="n">
-        <v>2568.493631507461</v>
+        <v>2568.493631507462</v>
       </c>
       <c r="R5" t="n">
-        <v>2589.992766140985</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S5" t="n">
         <v>2465.81558556073</v>
       </c>
       <c r="T5" t="n">
-        <v>2257.170226019557</v>
+        <v>2257.170226019558</v>
       </c>
       <c r="U5" t="n">
-        <v>2257.170226019557</v>
+        <v>2257.170226019558</v>
       </c>
       <c r="V5" t="n">
-        <v>2257.170226019557</v>
+        <v>1926.107338675987</v>
       </c>
       <c r="W5" t="n">
-        <v>1904.401570749443</v>
+        <v>1573.338683405873</v>
       </c>
       <c r="X5" t="n">
-        <v>1904.401570749443</v>
+        <v>1199.872925144793</v>
       </c>
       <c r="Y5" t="n">
-        <v>1514.262238773631</v>
+        <v>809.7335931689811</v>
       </c>
     </row>
     <row r="6">
@@ -4629,37 +4629,37 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6796705356769</v>
+        <v>448.679670535677</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1451125625619</v>
+        <v>302.145112562562</v>
       </c>
       <c r="G6" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H6" t="n">
-        <v>71.80507655065196</v>
+        <v>71.80507655065199</v>
       </c>
       <c r="I6" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J6" t="n">
         <v>115.2852578226161</v>
       </c>
       <c r="K6" t="n">
-        <v>491.5015312480865</v>
+        <v>301.9467472258287</v>
       </c>
       <c r="L6" t="n">
-        <v>788.8134803644011</v>
+        <v>942.9699568457227</v>
       </c>
       <c r="M6" t="n">
-        <v>1155.119369856727</v>
+        <v>1309.275846338048</v>
       </c>
       <c r="N6" t="n">
-        <v>1545.528931182469</v>
+        <v>1699.68540766379</v>
       </c>
       <c r="O6" t="n">
-        <v>1880.457611898</v>
+        <v>2195.735752851538</v>
       </c>
       <c r="P6" t="n">
         <v>2445.212480716556</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>496.7195358154589</v>
+        <v>207.6765531991404</v>
       </c>
       <c r="C7" t="n">
-        <v>496.7195358154589</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="D7" t="n">
-        <v>346.6028964031232</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="E7" t="n">
-        <v>198.6898028207301</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="F7" t="n">
-        <v>51.7998553228197</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="G7" t="n">
-        <v>51.7998553228197</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="H7" t="n">
-        <v>51.7998553228197</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="I7" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J7" t="n">
-        <v>77.98108068080546</v>
+        <v>77.98108068080549</v>
       </c>
       <c r="K7" t="n">
         <v>250.8417132121972</v>
@@ -4750,25 +4750,25 @@
         <v>1646.983670153878</v>
       </c>
       <c r="S7" t="n">
-        <v>1646.983670153878</v>
+        <v>1450.534004159847</v>
       </c>
       <c r="T7" t="n">
-        <v>1646.983670153878</v>
+        <v>1450.534004159847</v>
       </c>
       <c r="U7" t="n">
-        <v>1646.983670153878</v>
+        <v>1161.416227170245</v>
       </c>
       <c r="V7" t="n">
-        <v>1416.567300724207</v>
+        <v>906.731738964358</v>
       </c>
       <c r="W7" t="n">
-        <v>1127.150130687246</v>
+        <v>617.3145689273974</v>
       </c>
       <c r="X7" t="n">
-        <v>899.1605797892288</v>
+        <v>389.3250180293801</v>
       </c>
       <c r="Y7" t="n">
-        <v>678.3680006456987</v>
+        <v>389.3250180293801</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1183.403261976894</v>
+        <v>1552.718264700267</v>
       </c>
       <c r="C8" t="n">
-        <v>814.440745036482</v>
+        <v>1183.755747759855</v>
       </c>
       <c r="D8" t="n">
-        <v>456.1750464297314</v>
+        <v>825.4900491531046</v>
       </c>
       <c r="E8" t="n">
-        <v>70.38679383148717</v>
+        <v>439.7017965548604</v>
       </c>
       <c r="F8" t="n">
-        <v>63.44129308228369</v>
+        <v>432.7562958056569</v>
       </c>
       <c r="G8" t="n">
-        <v>51.7998553228197</v>
+        <v>421.1148580461929</v>
       </c>
       <c r="H8" t="n">
-        <v>51.7998553228197</v>
+        <v>117.2903254719912</v>
       </c>
       <c r="I8" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J8" t="n">
-        <v>189.9868871104781</v>
+        <v>189.9868871104782</v>
       </c>
       <c r="K8" t="n">
-        <v>447.831944713551</v>
+        <v>447.8319447135507</v>
       </c>
       <c r="L8" t="n">
-        <v>804.6133007477382</v>
+        <v>804.6133007477381</v>
       </c>
       <c r="M8" t="n">
         <v>1233.270741187502</v>
@@ -4820,34 +4820,34 @@
         <v>2075.818195082061</v>
       </c>
       <c r="P8" t="n">
-        <v>2384.705143645556</v>
+        <v>2384.705143645557</v>
       </c>
       <c r="Q8" t="n">
-        <v>2568.493631507461</v>
+        <v>2568.493631507462</v>
       </c>
       <c r="R8" t="n">
-        <v>2589.992766140985</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S8" t="n">
-        <v>2589.992766140985</v>
+        <v>2490.129035371705</v>
       </c>
       <c r="T8" t="n">
-        <v>2381.347406599813</v>
+        <v>2490.129035371705</v>
       </c>
       <c r="U8" t="n">
-        <v>2127.76817854206</v>
+        <v>2236.549807313952</v>
       </c>
       <c r="V8" t="n">
-        <v>1796.705291198489</v>
+        <v>1905.486919970381</v>
       </c>
       <c r="W8" t="n">
-        <v>1443.936635928375</v>
+        <v>1552.718264700267</v>
       </c>
       <c r="X8" t="n">
-        <v>1183.403261976894</v>
+        <v>1552.718264700267</v>
       </c>
       <c r="Y8" t="n">
-        <v>1183.403261976894</v>
+        <v>1552.718264700267</v>
       </c>
     </row>
     <row r="9">
@@ -4866,40 +4866,40 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6796705356769</v>
+        <v>448.679670535677</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1451125625619</v>
+        <v>302.145112562562</v>
       </c>
       <c r="G9" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H9" t="n">
-        <v>71.80507655065196</v>
+        <v>71.80507655065199</v>
       </c>
       <c r="I9" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J9" t="n">
-        <v>240.1153828096208</v>
+        <v>240.1153828096209</v>
       </c>
       <c r="K9" t="n">
         <v>688.5974568552863</v>
       </c>
       <c r="L9" t="n">
-        <v>985.909405971601</v>
+        <v>1104.091621317939</v>
       </c>
       <c r="M9" t="n">
-        <v>1352.215295463926</v>
+        <v>1470.397510810264</v>
       </c>
       <c r="N9" t="n">
-        <v>1742.624856789669</v>
+        <v>1860.807072136007</v>
       </c>
       <c r="O9" t="n">
-        <v>2077.5535375052</v>
+        <v>2195.735752851538</v>
       </c>
       <c r="P9" t="n">
-        <v>2327.030265370218</v>
+        <v>2445.212480716556</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.061870084021</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>665.6557187433658</v>
+        <v>179.2347582895954</v>
       </c>
       <c r="C10" t="n">
-        <v>496.7195358154589</v>
+        <v>179.2347582895954</v>
       </c>
       <c r="D10" t="n">
-        <v>346.6028964031232</v>
+        <v>179.2347582895954</v>
       </c>
       <c r="E10" t="n">
-        <v>198.6898028207301</v>
+        <v>179.2347582895954</v>
       </c>
       <c r="F10" t="n">
-        <v>51.7998553228197</v>
+        <v>179.2347582895954</v>
       </c>
       <c r="G10" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H10" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I10" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J10" t="n">
-        <v>77.98108068080546</v>
+        <v>77.98108068080549</v>
       </c>
       <c r="K10" t="n">
         <v>250.8417132121972</v>
@@ -4984,28 +4984,28 @@
         <v>1646.983670153878</v>
       </c>
       <c r="R10" t="n">
-        <v>1646.983670153878</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="S10" t="n">
-        <v>1646.983670153878</v>
+        <v>1348.412641916872</v>
       </c>
       <c r="T10" t="n">
-        <v>1646.983670153878</v>
+        <v>1125.478067458854</v>
       </c>
       <c r="U10" t="n">
-        <v>1646.983670153878</v>
+        <v>836.360290469252</v>
       </c>
       <c r="V10" t="n">
-        <v>1585.503483652114</v>
+        <v>581.6758022633652</v>
       </c>
       <c r="W10" t="n">
-        <v>1296.086313615153</v>
+        <v>581.6758022633652</v>
       </c>
       <c r="X10" t="n">
-        <v>1068.096762717136</v>
+        <v>581.6758022633652</v>
       </c>
       <c r="Y10" t="n">
-        <v>847.3041835736055</v>
+        <v>360.8832231198351</v>
       </c>
     </row>
     <row r="11">
@@ -5033,55 +5033,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G13" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>823.4946010684509</v>
       </c>
     </row>
     <row r="14">
@@ -5264,31 +5264,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.422291068009</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.04349261611</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5434,52 +5434,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5507,19 +5507,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014779</v>
@@ -5534,13 +5534,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5713,10 +5713,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1051.338974243769</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>378.6527890600114</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>231.762841562101</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5981,16 +5981,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,10 +5999,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>699.2677182139842</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1101.708762187754</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>880.9161830442239</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6221,25 +6221,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6257,16 +6257,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6309,22 +6309,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M27" t="n">
         <v>1186.520756890282</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>2366.028450684176</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6440,70 +6440,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192589</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637303</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M30" t="n">
         <v>1186.520756890282</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444888</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O30" t="n">
-        <v>2366.028450684175</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400708</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121639</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121639</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121639</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121639</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270438</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797741</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138406</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703105</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6689,37 +6689,37 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192589</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6780,25 +6780,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191923</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349507</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061502</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.043492616109</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400708</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121639</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121639</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121639</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121639</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270438</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797741</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1270.536647467212</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138406</v>
+        <v>1042.547096569194</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703105</v>
+        <v>821.7545174256642</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406466</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168588</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797183</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797183</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191922</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349506</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061502</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N36" t="n">
-        <v>2148.043492616109</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1889.844516861991</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2313.46766635706</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2546.729326731942</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400703</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121634</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121634</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121634</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121634</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270434</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797183</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854705</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648818</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138402</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.50206557031</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406466</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168588</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362685</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,22 +7245,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797183</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797183</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797183</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438179</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N39" t="n">
         <v>1307.627092998424</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>557.5558870561823</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7385,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,13 +7421,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7567,52 +7567,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="44">
@@ -7634,25 +7634,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014778</v>
@@ -7725,28 +7725,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969308</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D46" t="n">
-        <v>194.8007783998286</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E46" t="n">
-        <v>194.8007783998286</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F46" t="n">
-        <v>194.8007783998286</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
         <v>93.81666304797187</v>
@@ -7804,52 +7804,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -7976,10 +7976,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7988,19 +7988,19 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>338.9374781659682</v>
       </c>
       <c r="O2" t="n">
-        <v>149.3268049082995</v>
+        <v>21.35444800546651</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R2" t="n">
-        <v>65.71641987298243</v>
+        <v>26.19461818159724</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,28 +8055,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>301.5907184588518</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>380.8926041660668</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>359.2821607945058</v>
       </c>
       <c r="O3" t="n">
-        <v>4.010880068013023</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,10 +8295,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>191.4694788103614</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>347.1830914177568</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8307,10 +8307,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>162.7491560325417</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8535,7 +8535,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>119.3759750973111</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>119.3759750973111</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>20.1843750390658</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9641,13 +9641,13 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>-9.092207747706317e-13</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>2.387423592153937e-12</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>-1.972915003185951e-13</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10364,7 +10364,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>3.069544618483633e-12</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -11078,7 +11078,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>126.7126101431581</v>
       </c>
     </row>
     <row r="14">
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>57.22910392194228</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>44.7370056418716</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23893,16 +23893,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>133.693886234629</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>57.2291039219422</v>
+        <v>28.957421563281</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>183.5599762991733</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>126.7126101431581</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194267</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856556</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194267</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856556</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>124.9899273367992</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25321,16 +25321,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>143.6212754172146</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194308</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856556</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>43.26526345294951</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25555,19 +25555,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,7 +25600,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25846,7 +25846,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>210.9709121168614</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26020,28 +26020,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>62.35543909864911</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>65.54986409393069</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>772587.2664651654</v>
+        <v>772587.2664651653</v>
       </c>
     </row>
     <row r="3">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>731921.4354061164</v>
+        <v>731921.4354061165</v>
       </c>
     </row>
     <row r="7">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>731921.4354061164</v>
+        <v>731921.4354061165</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>731921.4354061164</v>
+        <v>731921.4354061163</v>
       </c>
     </row>
     <row r="15">
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846407</v>
+        <v>697885.5043846411</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846412</v>
+        <v>697885.5043846415</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.5043846415</v>
+        <v>697885.5043846414</v>
       </c>
       <c r="E2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.609736506</v>
       </c>
       <c r="F2" t="n">
         <v>686074.6097365057</v>
@@ -26329,31 +26329,31 @@
         <v>686074.6097365058</v>
       </c>
       <c r="H2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="I2" t="n">
         <v>686074.6097365057</v>
-      </c>
-      <c r="I2" t="n">
-        <v>686074.6097365054</v>
       </c>
       <c r="J2" t="n">
         <v>686074.6097365057</v>
       </c>
       <c r="K2" t="n">
+        <v>686074.6097365059</v>
+      </c>
+      <c r="L2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="M2" t="n">
         <v>686074.6097365057</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
+        <v>686074.6097365058</v>
+      </c>
+      <c r="O2" t="n">
+        <v>686074.6097365061</v>
+      </c>
+      <c r="P2" t="n">
         <v>686074.6097365057</v>
-      </c>
-      <c r="M2" t="n">
-        <v>686074.6097365054</v>
-      </c>
-      <c r="N2" t="n">
-        <v>686074.6097365055</v>
-      </c>
-      <c r="O2" t="n">
-        <v>686074.6097365058</v>
-      </c>
-      <c r="P2" t="n">
-        <v>686074.6097365058</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>939682.9358753973</v>
+        <v>939682.9358753986</v>
       </c>
       <c r="C3" t="n">
-        <v>172764.3597898935</v>
+        <v>172764.3597898923</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>500888.8677457508</v>
+        <v>500888.867745751</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,28 +26381,28 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.483574265123401e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>169414.016826048</v>
+        <v>169414.0168260479</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>130884.4569042352</v>
+        <v>130884.4569042353</v>
       </c>
       <c r="N3" t="n">
-        <v>1.569592313899193e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>159785.8388151601</v>
+        <v>159785.8388151599</v>
       </c>
       <c r="C4" t="n">
         <v>129066.754725248</v>
@@ -26424,37 +26424,37 @@
         <v>129066.754725248</v>
       </c>
       <c r="E4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695026</v>
       </c>
       <c r="F4" t="n">
-        <v>6287.48053169506</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="G4" t="n">
-        <v>6287.480531695077</v>
+        <v>6287.480531695044</v>
       </c>
       <c r="H4" t="n">
-        <v>6287.480531695117</v>
+        <v>6287.480531695019</v>
       </c>
       <c r="I4" t="n">
-        <v>6287.480531695062</v>
+        <v>6287.48053169503</v>
       </c>
       <c r="J4" t="n">
-        <v>6287.480531695014</v>
+        <v>6287.48053169503</v>
       </c>
       <c r="K4" t="n">
-        <v>6287.480531695094</v>
+        <v>6287.480531695002</v>
       </c>
       <c r="L4" t="n">
-        <v>6287.480531695108</v>
+        <v>6287.480531695023</v>
       </c>
       <c r="M4" t="n">
-        <v>6287.480531695157</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="N4" t="n">
-        <v>6287.480531695155</v>
+        <v>6287.480531695033</v>
       </c>
       <c r="O4" t="n">
-        <v>6287.480531695054</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="P4" t="n">
         <v>6287.480531695051</v>
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>89345.07489699086</v>
+        <v>89345.0748969909</v>
       </c>
       <c r="C5" t="n">
-        <v>93481.08936150958</v>
+        <v>93481.0893615096</v>
       </c>
       <c r="D5" t="n">
-        <v>93481.08936150958</v>
+        <v>93481.0893615096</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-490928.3452029075</v>
+        <v>-490928.3452029083</v>
       </c>
       <c r="C6" t="n">
-        <v>302573.3005079901</v>
+        <v>302573.3005079916</v>
       </c>
       <c r="D6" t="n">
-        <v>475337.660297884</v>
+        <v>475337.6602978838</v>
       </c>
       <c r="E6" t="n">
-        <v>77775.73163515267</v>
+        <v>77740.99370971716</v>
       </c>
       <c r="F6" t="n">
-        <v>578664.5993809035</v>
+        <v>578629.8614554679</v>
       </c>
       <c r="G6" t="n">
-        <v>578664.5993809036</v>
+        <v>578629.8614554682</v>
       </c>
       <c r="H6" t="n">
-        <v>578664.5993809035</v>
+        <v>578629.8614554675</v>
       </c>
       <c r="I6" t="n">
-        <v>578664.5993809033</v>
+        <v>578629.8614554678</v>
       </c>
       <c r="J6" t="n">
-        <v>409250.5825548555</v>
+        <v>409215.8446294199</v>
       </c>
       <c r="K6" t="n">
-        <v>578664.5993809039</v>
+        <v>578629.8614554682</v>
       </c>
       <c r="L6" t="n">
-        <v>578664.5993809035</v>
+        <v>578629.8614554678</v>
       </c>
       <c r="M6" t="n">
-        <v>447780.142476668</v>
+        <v>447745.4045512325</v>
       </c>
       <c r="N6" t="n">
-        <v>578664.5993809032</v>
+        <v>578629.861455468</v>
       </c>
       <c r="O6" t="n">
-        <v>578664.5993809035</v>
+        <v>578629.8614554683</v>
       </c>
       <c r="P6" t="n">
-        <v>578664.5993809036</v>
+        <v>578629.8614554679</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976094</v>
+        <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
         <v>939.7063906498445</v>
@@ -26762,13 +26762,13 @@
         <v>1367.975500341674</v>
       </c>
       <c r="K3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="L3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="M3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="N3" t="n">
         <v>1367.975500341674</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352463</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="C4" t="n">
-        <v>647.4981915352463</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="D4" t="n">
-        <v>647.4981915352463</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26805,16 +26805,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26823,7 +26823,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976094</v>
+        <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
-        <v>189.725434152235</v>
+        <v>189.7254341522337</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>428.2691096918293</v>
+        <v>428.2691096918295</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26993,10 +26993,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352463</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>525.2100965644021</v>
+        <v>525.2100965644022</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352462</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644016</v>
+        <v>525.2100965644022</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352463</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644021</v>
+        <v>525.2100965644022</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,22 +27379,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>235.426571615664</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>308.5974454495113</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27433,16 +27433,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1044530022292</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>294.6495360901517</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>146.9910351141398</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27549,13 +27549,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>104.1101912092347</v>
+        <v>166.6385546828073</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>150.2028876639205</v>
       </c>
       <c r="I4" t="n">
-        <v>114.7793764994863</v>
+        <v>114.7793764994862</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>116.4834600519699</v>
+        <v>116.4834600519698</v>
       </c>
       <c r="S4" t="n">
-        <v>200.4475243713015</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>222.1670476323163</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>55.18345463471036</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>300.7862872484598</v>
       </c>
       <c r="I5" t="n">
-        <v>64.83556544767973</v>
+        <v>52.83816749525135</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27673,13 +27673,13 @@
         <v>251.0434357771752</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,16 +27774,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>117.4195497140715</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.2964268507295</v>
@@ -27792,7 +27792,7 @@
         <v>147.161060211447</v>
       </c>
       <c r="I7" t="n">
-        <v>104.4906595130011</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,16 +27822,16 @@
         <v>101.1001486205444</v>
       </c>
       <c r="S7" t="n">
-        <v>194.4851693340911</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>220.7052287134384</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2265992197056</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>24.02543758845349</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>300.7862872484598</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>64.83556544767973</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>122.935408774453</v>
+        <v>24.07031531286474</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27916,7 +27916,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>111.8030604665028</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28011,19 +28011,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.2964268507295</v>
+        <v>40.13587291362164</v>
       </c>
       <c r="H10" t="n">
         <v>147.161060211447</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.4851693340911</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7052287134384</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2265992197056</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>191.2722586870813</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28615,7 +28615,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>-7.394985773160066e-13</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>2.330580173293129e-12</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.01499882009089</v>
+        <v>3.014998820090895</v>
       </c>
       <c r="H2" t="n">
-        <v>30.87735666625584</v>
+        <v>30.87735666625589</v>
       </c>
       <c r="I2" t="n">
-        <v>116.2357420115542</v>
+        <v>116.2357420115544</v>
       </c>
       <c r="J2" t="n">
-        <v>255.8942561066894</v>
+        <v>255.8942561066899</v>
       </c>
       <c r="K2" t="n">
-        <v>383.5191561611368</v>
+        <v>383.5191561611376</v>
       </c>
       <c r="L2" t="n">
-        <v>475.7894263014935</v>
+        <v>475.7894263014944</v>
       </c>
       <c r="M2" t="n">
-        <v>529.4074115682848</v>
+        <v>529.4074115682859</v>
       </c>
       <c r="N2" t="n">
-        <v>537.9737769658682</v>
+        <v>537.9737769658691</v>
       </c>
       <c r="O2" t="n">
-        <v>507.9933824485893</v>
+        <v>507.9933824485902</v>
       </c>
       <c r="P2" t="n">
-        <v>433.5605990775954</v>
+        <v>433.5605990775962</v>
       </c>
       <c r="Q2" t="n">
-        <v>325.5859538330903</v>
+        <v>325.5859538330909</v>
       </c>
       <c r="R2" t="n">
-        <v>189.3909196325345</v>
+        <v>189.3909196325349</v>
       </c>
       <c r="S2" t="n">
-        <v>68.70428561282122</v>
+        <v>68.70428561282135</v>
       </c>
       <c r="T2" t="n">
-        <v>13.19815733494788</v>
+        <v>13.1981573349479</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2411999056072711</v>
+        <v>0.2411999056072716</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.613166585674103</v>
+        <v>1.613166585674106</v>
       </c>
       <c r="H3" t="n">
-        <v>15.57979307743148</v>
+        <v>15.5797930774315</v>
       </c>
       <c r="I3" t="n">
-        <v>55.54104253307769</v>
+        <v>55.54104253307779</v>
       </c>
       <c r="J3" t="n">
-        <v>152.4088658859907</v>
+        <v>152.4088658859909</v>
       </c>
       <c r="K3" t="n">
-        <v>260.4910271261555</v>
+        <v>260.491027126156</v>
       </c>
       <c r="L3" t="n">
-        <v>350.2623325605109</v>
+        <v>350.2623325605116</v>
       </c>
       <c r="M3" t="n">
-        <v>408.7396212911971</v>
+        <v>408.7396212911979</v>
       </c>
       <c r="N3" t="n">
-        <v>419.557742824073</v>
+        <v>419.5577428240738</v>
       </c>
       <c r="O3" t="n">
-        <v>383.8133674257153</v>
+        <v>383.813367425716</v>
       </c>
       <c r="P3" t="n">
-        <v>308.0440649433295</v>
+        <v>308.04406494333</v>
       </c>
       <c r="Q3" t="n">
-        <v>205.9192996028908</v>
+        <v>205.9192996028912</v>
       </c>
       <c r="R3" t="n">
-        <v>100.157834152643</v>
+        <v>100.1578341526432</v>
       </c>
       <c r="S3" t="n">
-        <v>29.96386179969221</v>
+        <v>29.96386179969226</v>
       </c>
       <c r="T3" t="n">
-        <v>6.502193386993423</v>
+        <v>6.502193386993435</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1061293806364542</v>
+        <v>0.1061293806364544</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.352424675651427</v>
+        <v>1.352424675651429</v>
       </c>
       <c r="H4" t="n">
-        <v>12.02428484351906</v>
+        <v>12.02428484351908</v>
       </c>
       <c r="I4" t="n">
-        <v>40.67109842777201</v>
+        <v>40.67109842777208</v>
       </c>
       <c r="J4" t="n">
-        <v>95.61642456855586</v>
+        <v>95.61642456855604</v>
       </c>
       <c r="K4" t="n">
-        <v>157.1271577711385</v>
+        <v>157.1271577711387</v>
       </c>
       <c r="L4" t="n">
-        <v>201.0686649600312</v>
+        <v>201.0686649600316</v>
       </c>
       <c r="M4" t="n">
-        <v>211.9987152932504</v>
+        <v>211.9987152932508</v>
       </c>
       <c r="N4" t="n">
-        <v>206.9578596840044</v>
+        <v>206.9578596840047</v>
       </c>
       <c r="O4" t="n">
-        <v>191.1590805184399</v>
+        <v>191.1590805184402</v>
       </c>
       <c r="P4" t="n">
-        <v>163.5696171351507</v>
+        <v>163.569617135151</v>
       </c>
       <c r="Q4" t="n">
-        <v>113.247124431139</v>
+        <v>113.2471244311392</v>
       </c>
       <c r="R4" t="n">
-        <v>60.80993132519959</v>
+        <v>60.8099313251997</v>
       </c>
       <c r="S4" t="n">
-        <v>23.56907366567076</v>
+        <v>23.56907366567081</v>
       </c>
       <c r="T4" t="n">
-        <v>5.778541795965185</v>
+        <v>5.778541795965196</v>
       </c>
       <c r="U4" t="n">
-        <v>0.07376861867189609</v>
+        <v>0.07376861867189623</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>422.1299181110988</v>
       </c>
       <c r="M12" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>402.2342772868842</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32318,7 +32318,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338208</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32330,13 +32330,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>291.8940795642898</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>332.1692388321073</v>
       </c>
       <c r="P21" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>429.5828357723605</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33029,34 +33029,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>681.5735157229393</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162558</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659448</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521099</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33266,34 +33266,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437241</v>
+        <v>188.4731159523453</v>
       </c>
       <c r="P30" t="n">
-        <v>322.8964653704916</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,46 +33333,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162558</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659448</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521099</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33500,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422584</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.883274947307</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>551.7051287319862</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,46 +33570,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162558</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659448</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521099</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422584</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071782</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>551.7051287319862</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>152.0754244981384</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,46 +33807,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>734.267838362267</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071783</v>
+        <v>366.8427442359099</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,46 +34044,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>277.2922978908101</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162548</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>368.6279838366847</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>243.9449667520769</v>
+        <v>74.84835158000359</v>
       </c>
       <c r="K2" t="n">
-        <v>487.574717687321</v>
+        <v>163.429305116157</v>
       </c>
       <c r="L2" t="n">
-        <v>240.0230113315063</v>
+        <v>240.0230113315071</v>
       </c>
       <c r="M2" t="n">
-        <v>299.0611783410121</v>
+        <v>299.0611783410131</v>
       </c>
       <c r="N2" t="n">
-        <v>308.5607133692773</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="O2" t="n">
-        <v>427.2219759352021</v>
+        <v>299.24961903237</v>
       </c>
       <c r="P2" t="n">
-        <v>202.3276033223259</v>
+        <v>524.1263114938092</v>
       </c>
       <c r="Q2" t="n">
-        <v>315.5952546185455</v>
+        <v>315.5952546185461</v>
       </c>
       <c r="R2" t="n">
-        <v>39.52180169138484</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>25.57123921932396</v>
+        <v>151.662274559733</v>
       </c>
       <c r="K3" t="n">
-        <v>387.1148251643751</v>
+        <v>122.649588151797</v>
       </c>
       <c r="L3" t="n">
-        <v>582.5482980840959</v>
+        <v>513.2986712394892</v>
       </c>
       <c r="M3" t="n">
-        <v>266.6055873691787</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="N3" t="n">
-        <v>288.2160307407397</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="O3" t="n">
-        <v>245.2280030492839</v>
+        <v>241.2171229812715</v>
       </c>
       <c r="P3" t="n">
-        <v>492.5324261689364</v>
+        <v>174.0696575289998</v>
       </c>
       <c r="Q3" t="n">
-        <v>276.0148132527184</v>
+        <v>65.9375255168697</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.257244451883082</v>
+        <v>2.257244451883267</v>
       </c>
       <c r="K4" t="n">
-        <v>134.8576659452556</v>
+        <v>134.8576659452559</v>
       </c>
       <c r="L4" t="n">
-        <v>228.6586902203474</v>
+        <v>228.6586902203478</v>
       </c>
       <c r="M4" t="n">
-        <v>251.582592255091</v>
+        <v>251.5825922550914</v>
       </c>
       <c r="N4" t="n">
-        <v>251.090032063233</v>
+        <v>251.0900320632333</v>
       </c>
       <c r="O4" t="n">
-        <v>215.7442084324796</v>
+        <v>215.7442084324799</v>
       </c>
       <c r="P4" t="n">
-        <v>160.8481764000442</v>
+        <v>160.8481764000445</v>
       </c>
       <c r="Q4" t="n">
-        <v>27.08508117944464</v>
+        <v>27.08508117944484</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,7 +34933,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>139.5828603915738</v>
+        <v>139.582860391574</v>
       </c>
       <c r="K5" t="n">
         <v>260.4495531344171</v>
@@ -35015,10 +35015,10 @@
         <v>64.12666919171352</v>
       </c>
       <c r="K6" t="n">
-        <v>380.0164378035054</v>
+        <v>188.5469589931441</v>
       </c>
       <c r="L6" t="n">
-        <v>300.3151001174896</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="M6" t="n">
         <v>370.0059489821469</v>
@@ -35027,10 +35027,10 @@
         <v>394.3530922482246</v>
       </c>
       <c r="O6" t="n">
-        <v>338.3117987025566</v>
+        <v>501.0609547350983</v>
       </c>
       <c r="P6" t="n">
-        <v>570.4594634530874</v>
+        <v>251.9966948131503</v>
       </c>
       <c r="Q6" t="n">
         <v>118.0296862297622</v>
@@ -35255,7 +35255,7 @@
         <v>453.0121960057227</v>
       </c>
       <c r="L9" t="n">
-        <v>300.3151001174896</v>
+        <v>419.6910752148007</v>
       </c>
       <c r="M9" t="n">
         <v>370.0059489821469</v>
@@ -35270,7 +35270,7 @@
         <v>251.9966948131503</v>
       </c>
       <c r="Q9" t="n">
-        <v>237.4056613270733</v>
+        <v>118.0296862297622</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>283.5755383312246</v>
       </c>
       <c r="M12" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>263.67989750701</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>409.1088842875408</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35966,7 +35966,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394658</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35978,13 +35978,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>189.5729943876629</v>
       </c>
       <c r="P21" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462693</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193505</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>295.6084283580303</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193505</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,25 +36677,25 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>550.231803639606</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367768</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462685</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902944</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243157</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902427</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,25 +36914,25 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674328</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238449</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992796</v>
+        <v>45.87687150790087</v>
       </c>
       <c r="P30" t="n">
-        <v>188.9220579561613</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096348</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367768</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462685</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243157</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683839</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678994</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674328</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238449</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>409.1088842875417</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096348</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367768</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462685</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902944</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243157</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678994</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674328</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238449</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>409.1088842875417</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>6.395920534174421</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096348</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402486</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.937336923845</v>
+        <v>235.5010321525766</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992797</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>134.6960534463657</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>237.2862717533515</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
